--- a/biology/Histoire de la zoologie et de la botanique/Armand_Sabatier/Armand_Sabatier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Armand_Sabatier/Armand_Sabatier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Paul Dieudonné Armand Sabatier, né le 13 janvier 1834 à Ganges et mort le 22 décembre 1910 à Montpellier, est un médecin et zoologiste français. 
 Il est professeur de médecine à l'université de Montpellier, doyen de la faculté des sciences et créateur du laboratoire de zoologie marine de Sète. 
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armand Sabatier fait ses études à Montpellier, où il suit les cours de mathématiques spéciales au lycée, puis s'inscrit en médecine. Il fait ensuite trois ans d'internat à Lyon, puis revient à Montpellier, où il soutient en 1863 sa thèse de doctorat de médecine, intitulée « Étude anatomique, physiologique et clinique sur l’auscultation du poumon chez les enfants »[1]. Il épouse Laure Gervais de Rouville, ils ont deux filles, Jeanne et Marie[2]. Durant la guerre franco-allemande de 1870, il est chirurgien responsable des ambulances du midi[3]. Après la guerre, il prépare son doctorat de sciences, qu'il obtient en 1873, après la soutenance d'une thèse intitulée « Le cœur et la circulation centrale des Vertébrés » puis, en 1876, il est nommé professeur titulaire de la chaire de zoologie de la faculté des sciences de Montpellier[1]. Il est doyen de la faculté des sciences de 1891 à 1904.
-Il est connu pour ses études d'anatomie comparée des animaux[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand Sabatier fait ses études à Montpellier, où il suit les cours de mathématiques spéciales au lycée, puis s'inscrit en médecine. Il fait ensuite trois ans d'internat à Lyon, puis revient à Montpellier, où il soutient en 1863 sa thèse de doctorat de médecine, intitulée « Étude anatomique, physiologique et clinique sur l’auscultation du poumon chez les enfants ». Il épouse Laure Gervais de Rouville, ils ont deux filles, Jeanne et Marie. Durant la guerre franco-allemande de 1870, il est chirurgien responsable des ambulances du midi. Après la guerre, il prépare son doctorat de sciences, qu'il obtient en 1873, après la soutenance d'une thèse intitulée « Le cœur et la circulation centrale des Vertébrés » puis, en 1876, il est nommé professeur titulaire de la chaire de zoologie de la faculté des sciences de Montpellier. Il est doyen de la faculté des sciences de 1891 à 1904.
+Il est connu pour ses études d'anatomie comparée des animaux.
 Il crée et dirige la station de zoologie maritime de Sète.
-Le sculpteur Auguste Baussan réalise en 1905 un buste de lui déposé à l'université de Montpellier, inscrit sur la liste d'objets des Monuments historiques[5]. Le peintre Édouard Marsal réalise un portrait également déposé à la faculté des sciences montpelliéraine, inscrit sur la liste des objets des Monuments historiques[6]. 
-Il est le fondateur de l'Église réformée indépendante de Montpellier[1], donne une série de cours sur l'évolutionnisme, théorie envers laquelle il se montre très favorable, à la faculté de théologie protestante de Montauban en 1884-1885[7].
-Il est membre correspondant de l'Académie des sciences (1895-1910) et membre de l'Académie des sciences et lettres de Montpellier (1871-1886). Il est enterré au cimetière protestant de Montpellier[8].
-Son nom est associé à l'« effet Sabatier », en photographie, mieux connu comme phénomène de solarisation[9].
+Le sculpteur Auguste Baussan réalise en 1905 un buste de lui déposé à l'université de Montpellier, inscrit sur la liste d'objets des Monuments historiques. Le peintre Édouard Marsal réalise un portrait également déposé à la faculté des sciences montpelliéraine, inscrit sur la liste des objets des Monuments historiques. 
+Il est le fondateur de l'Église réformée indépendante de Montpellier, donne une série de cours sur l'évolutionnisme, théorie envers laquelle il se montre très favorable, à la faculté de théologie protestante de Montauban en 1884-1885.
+Il est membre correspondant de l'Académie des sciences (1895-1910) et membre de l'Académie des sciences et lettres de Montpellier (1871-1886). Il est enterré au cimetière protestant de Montpellier.
+Son nom est associé à l'« effet Sabatier », en photographie, mieux connu comme phénomène de solarisation.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabatieria, un genre de nématodes, est nommé en son honneur en 1903 par le zoologiste français Étienne de Rouville (d)[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabatieria, un genre de nématodes, est nommé en son honneur en 1903 par le zoologiste français Étienne de Rouville (d).
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1895-1910 : membre correspondant de l'Académie des sciences (section d'anatomie)
-1899 : officier de la Légion d'honneur[11]</t>
+1899 : officier de la Légion d'honneur</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(thèse) Études sur le cœur et la circulation centrale dans la série des vertébrés, Montpellier/Paris, Coulet/V.A. Delahaye, 1873, lire en ligne sur Gallica [lire en ligne]
 Études sur la moule commune, « Mytilus edulis », Montpellier/Paris, Coulet/V.A. Delahaye, 1877 lire en ligne sur Gallica [lire en ligne]
